--- a/screen/manage_attendance/DI0001/attendance.xlsx
+++ b/screen/manage_attendance/DI0001/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>27/03</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Số lần vắng</t>
         </is>
       </c>
@@ -507,7 +512,8 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -534,7 +540,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -561,7 +568,8 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,7 +608,8 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -627,7 +636,8 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,7 +664,8 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -681,7 +692,8 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -708,7 +720,8 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -743,7 +756,8 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -770,7 +784,8 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -797,7 +812,8 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,8 +840,13 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>1</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -841,7 +862,8 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -859,6 +881,25 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
